--- a/main/StructureDefinition-bc-practitioner-role.xlsx
+++ b/main/StructureDefinition-bc-practitioner-role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27T23:52:18+00:00</t>
+    <t>2025-02-28T00:26:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-role-1:The organization and location references are not permitted in this profile. {organization.count()=0 and location.count()=0}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}invariant-role-1:The organization and location references are not permitted in this profile. {organization.count()=0 and location.count()=0}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -319,10 +319,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>PractitionerRole.implicitRules</t>
   </si>
   <si>
@@ -342,6 +349,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>PractitionerRole.language</t>
   </si>
   <si>
@@ -419,26 +429,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>PractitionerRole.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -468,10 +485,6 @@
     <t>The roleStatus extension has been flagged for further implementer feedback regarding whether it should be considered a modifier extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RoleStatus</t>
   </si>
   <si>
@@ -494,10 +507,6 @@
     <t>PractitionerRole.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -505,9 +514,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -521,10 +527,10 @@
 </t>
   </si>
   <si>
-    <t>Business Identifiers that are specific to a role/location</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
   </si>
   <si>
     <t>This element is considered SHOULD support and it is recommended to have an identifier associated with PractitionerRole to assist in searches, not every implementation (especially legacy implementations that combined both concepts of practitioner &amp; practitionerRole) will include an identifier practioner role.</t>
@@ -589,7 +595,15 @@
     <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>PRD-8/9 / PRA-5.4</t>
@@ -614,6 +628,13 @@
     <t>Practitioner that is able to provide the defined services for the organization.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>.player</t>
   </si>
   <si>
@@ -704,19 +725,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PractitionerRole.specialty.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -895,9 +907,19 @@
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
     <t>.telecom</t>
   </si>
   <si>
+    <t>ContactPoint</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.id</t>
   </si>
   <si>
@@ -913,6 +935,9 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -922,8 +947,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>XTN.3</t>
@@ -1157,6 +1182,9 @@
   </si>
   <si>
     <t>Service is not available (seasonally or for a public holiday) from this date.</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>PractitionerRole.availabilityExceptions</t>
@@ -1184,6 +1212,9 @@
     <t>Organizations have multiple systems that provide various services and ,ay also be different for practitioners too.  So the endpoint satisfies the need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
 </sst>
 </file>
@@ -1993,16 +2024,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>76</v>
@@ -2013,10 +2044,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2039,16 +2070,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2098,7 +2129,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2107,16 +2138,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>76</v>
@@ -2127,10 +2158,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2153,16 +2184,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2188,13 +2219,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2212,7 +2243,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2221,16 +2252,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>76</v>
@@ -2241,14 +2272,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2267,16 +2298,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2326,7 +2357,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2335,16 +2366,16 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2355,14 +2386,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2381,16 +2412,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2440,7 +2471,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2458,7 +2489,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2469,14 +2500,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2495,15 +2526,17 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2540,17 +2573,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2559,16 +2594,16 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2579,16 +2614,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2607,16 +2642,16 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2666,7 +2701,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2675,16 +2710,16 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2695,16 +2730,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2723,15 +2758,17 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2780,7 +2817,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2789,16 +2826,16 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -2809,14 +2846,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2835,19 +2872,19 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2884,19 +2921,19 @@
         <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2905,16 +2942,16 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -2925,10 +2962,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2951,19 +2988,19 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -3012,7 +3049,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3021,30 +3058,30 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3067,70 +3104,70 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3139,30 +3176,30 @@
         <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3185,17 +3222,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3244,7 +3283,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3253,30 +3292,30 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3299,15 +3338,17 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3356,7 +3397,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3365,16 +3406,16 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3385,10 +3426,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3411,15 +3452,17 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3468,7 +3511,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3477,16 +3520,16 @@
         <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3497,10 +3540,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3523,19 +3566,19 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3560,11 +3603,11 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3582,7 +3625,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3591,19 +3634,19 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3611,10 +3654,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3637,16 +3680,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3672,11 +3715,11 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3694,7 +3737,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3703,19 +3746,19 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3723,10 +3766,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3749,13 +3792,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3806,7 +3849,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3824,7 +3867,7 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3835,14 +3878,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3861,16 +3904,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3908,19 +3951,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3932,13 +3975,13 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3949,13 +3992,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="C22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
@@ -3977,13 +4020,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4034,7 +4077,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4046,7 +4089,7 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -4063,13 +4106,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
@@ -4091,13 +4134,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4148,7 +4191,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4160,7 +4203,7 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
@@ -4177,13 +4220,13 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>76</v>
@@ -4205,13 +4248,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4262,7 +4305,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4274,7 +4317,7 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
@@ -4291,13 +4334,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
@@ -4319,13 +4362,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4376,7 +4419,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4388,7 +4431,7 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4405,10 +4448,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4431,19 +4474,19 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4492,7 +4535,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4504,13 +4547,13 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4521,10 +4564,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4547,19 +4590,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4608,7 +4651,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4620,13 +4663,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4637,10 +4680,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4663,15 +4706,17 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4720,7 +4765,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4729,30 +4774,30 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4775,15 +4820,17 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4832,7 +4879,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4841,16 +4888,16 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4861,10 +4908,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4887,17 +4934,17 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4946,7 +4993,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4955,19 +5002,19 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -4975,10 +5022,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5001,13 +5048,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5058,7 +5105,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5076,7 +5123,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5087,14 +5134,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5113,16 +5160,16 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5160,19 +5207,19 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5181,16 +5228,16 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5201,10 +5248,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5227,15 +5274,17 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5260,13 +5309,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5284,7 +5333,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5293,19 +5342,19 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5313,10 +5362,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5339,19 +5388,19 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5400,7 +5449,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5409,19 +5458,19 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>76</v>
@@ -5429,10 +5478,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5455,19 +5504,19 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5492,13 +5541,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5516,7 +5565,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5525,19 +5574,19 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5545,10 +5594,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5571,16 +5620,16 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5630,7 +5679,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5639,16 +5688,16 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5659,10 +5708,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5685,15 +5734,17 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5742,7 +5793,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5751,19 +5802,19 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -5771,10 +5822,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5797,16 +5848,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5856,7 +5907,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5865,16 +5916,16 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5885,10 +5936,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5911,13 +5962,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5968,7 +6019,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5986,7 +6037,7 @@
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5997,14 +6048,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6023,16 +6074,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6070,19 +6121,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6091,16 +6142,16 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6111,14 +6162,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6137,19 +6188,19 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6198,7 +6249,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6207,16 +6258,16 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6227,10 +6278,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6253,15 +6304,17 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6286,13 +6339,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6310,7 +6363,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6319,16 +6372,16 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6339,10 +6392,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6365,13 +6418,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6422,7 +6475,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6431,16 +6484,16 @@
         <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6451,10 +6504,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6477,16 +6530,16 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6536,7 +6589,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6545,16 +6598,16 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6565,10 +6618,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6591,16 +6644,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6650,7 +6703,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6659,16 +6712,16 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6679,10 +6732,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6705,13 +6758,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6762,7 +6815,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6771,16 +6824,16 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6791,10 +6844,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6817,13 +6870,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6874,7 +6927,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6892,7 +6945,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6903,14 +6956,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6929,16 +6982,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6976,19 +7029,19 @@
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6997,16 +7050,16 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7017,14 +7070,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7043,19 +7096,19 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7104,7 +7157,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7113,16 +7166,16 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7133,10 +7186,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7159,15 +7212,17 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7216,7 +7271,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>87</v>
@@ -7225,16 +7280,16 @@
         <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7245,10 +7300,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7271,15 +7326,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7328,7 +7385,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7337,16 +7394,16 @@
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7357,10 +7414,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7383,15 +7440,17 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7440,7 +7499,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7449,16 +7508,16 @@
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7469,10 +7528,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7495,17 +7554,19 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7554,7 +7615,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7563,16 +7624,16 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>220</v>
+        <v>383</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>

--- a/main/StructureDefinition-bc-practitioner-role.xlsx
+++ b/main/StructureDefinition-bc-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-28T00:26:03+00:00</t>
+    <t>2025-03-05T22:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-practitioner-role.xlsx
+++ b/main/StructureDefinition-bc-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-05T22:25:43+00:00</t>
+    <t>2025-03-06T00:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-practitioner-role.xlsx
+++ b/main/StructureDefinition-bc-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T00:10:12+00:00</t>
+    <t>2025-05-30T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1541,17 +1541,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.1796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.58203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1560,26 +1560,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.44140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="78.94140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="166.7265625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
